--- a/JieLongMod_6/Excel/D单位模型定义接力第一棒.xlsx
+++ b/JieLongMod_6/Excel/D单位模型定义接力第一棒.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jielong\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$R$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$R$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +36,7 @@
     <author>kt</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0">
+    <comment ref="P1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -125,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -208,7 +203,7 @@
     <t>备注_Remarks</t>
   </si>
   <si>
-    <t>第一棒玲</t>
+    <t>铃_道观服</t>
   </si>
   <si>
     <t>Prefabs/玲</t>
@@ -222,7 +217,7 @@
 战吼=Female07_BattleShout</t>
   </si>
   <si>
-    <t>第一棒哲</t>
+    <t>哲_道观服</t>
   </si>
   <si>
     <t>Prefabs/哲</t>
@@ -237,18 +232,22 @@
   </si>
   <si>
     <t>战斗修女</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Prefabs/战斗修女</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -268,10 +267,160 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -284,27 +433,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +447,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -341,86 +657,362 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="2"/>
-    <cellStyle name="普通 2" xfId="3"/>
-    <cellStyle name="普通 3" xfId="5"/>
-    <cellStyle name="普通 4" xfId="4"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="普通" xfId="49"/>
+    <cellStyle name="普通 2" xfId="50"/>
+    <cellStyle name="普通 3" xfId="51"/>
+    <cellStyle name="普通 4" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF6D6D"/>
+      <color rgb="00FF6D6D"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -749,42 +1341,43 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="12.77734375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="25.44140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9" style="2"/>
-    <col min="19" max="19" width="28" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="2"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.2181818181818" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.3363636363636" style="3" customWidth="1"/>
+    <col min="3" max="4" width="12.7818181818182" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.33636363636364" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.6636363636364" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="10.3363636363636" style="3" customWidth="1"/>
+    <col min="9" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="12.7818181818182" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.33636363636364" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.8909090909091" style="3" customWidth="1"/>
+    <col min="15" max="15" width="7.33636363636364" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.4454545454545" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.6636363636364" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9" style="3"/>
+    <col min="19" max="19" width="28" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.66363636363636" style="3"/>
+    <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="117" customHeight="1" spans="1:18">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -840,7 +1433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="99" customHeight="1" spans="1:20">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -885,12 +1478,12 @@
       <c r="P2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="3">
         <f>INT(G2/1.25)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="99" customHeight="1" spans="1:20">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -935,19 +1528,19 @@
       <c r="P3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="3">
         <f>INT(G3/1.25)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" ht="99" customHeight="1" spans="1:20">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="9"/>
@@ -985,16 +1578,18 @@
       <c r="P4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="3">
         <f>INT(G4/1.25)</f>
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R3"/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <autoFilter ref="A1:R4">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>